--- a/Report/SQL schedule.xlsx
+++ b/Report/SQL schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1240" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>enquiry_jc_shop_damage</t>
-  </si>
-  <si>
-    <t>supplier_info_enquiry(day,week)</t>
-  </si>
-  <si>
-    <t>order_status(day,week)</t>
-  </si>
-  <si>
     <t>order_info(daily)</t>
   </si>
   <si>
@@ -93,6 +84,12 @@
   </si>
   <si>
     <t>enquiry_jc_shop_damage(18:00-18:00, weekly)</t>
+  </si>
+  <si>
+    <t>supplier_info_enquiry(daily,weekly)</t>
+  </si>
+  <si>
+    <t>enquiry_jc_shop_damage(15:00-12:00)</t>
   </si>
 </sst>
 </file>
@@ -161,11 +158,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,7 +446,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,207 +460,219 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>0.625</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>0.75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
